--- a/raw_data/20200818_saline/20200818_Sensor3_Test_94.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_94.xlsx
@@ -1,6903 +1,7320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB90B7-BADA-4ADF-88C0-F7CB73B95FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>84264.208284</v>
+        <v>84264.208283999993</v>
       </c>
       <c r="B2" s="1">
-        <v>23.406725</v>
+        <v>23.406725000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1152.220000</v>
+        <v>1152.22</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.870000</v>
+        <v>-258.87</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>84274.642621</v>
+        <v>84274.642621000006</v>
       </c>
       <c r="G2" s="1">
         <v>23.409623</v>
       </c>
       <c r="H2" s="1">
-        <v>1173.410000</v>
+        <v>1173.4100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.668000</v>
+        <v>-217.66800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>84285.115649</v>
+        <v>84285.115648999999</v>
       </c>
       <c r="L2" s="1">
-        <v>23.412532</v>
+        <v>23.412531999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1201.390000</v>
+        <v>1201.3900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.641000</v>
+        <v>-151.64099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>84295.656662</v>
+        <v>84295.656661999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.415460</v>
+        <v>23.415459999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1209.450000</v>
+        <v>1209.45</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.464000</v>
+        <v>-129.464</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>84306.231331</v>
+        <v>84306.231331000003</v>
       </c>
       <c r="V2" s="1">
         <v>23.418398</v>
       </c>
       <c r="W2" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.428000</v>
+        <v>-108.428</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>84317.004474</v>
+        <v>84317.004474000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.421390</v>
+        <v>23.421389999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.760000</v>
+        <v>1224.76</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.260600</v>
+        <v>-91.260599999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>84327.266695</v>
+        <v>84327.266694999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.424241</v>
+        <v>23.424240999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.490000</v>
+        <v>1229.49</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.611300</v>
+        <v>-86.6113</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>84337.469865</v>
+        <v>84337.469865000006</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.427075</v>
+        <v>23.427074999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.639100</v>
+        <v>-89.639099999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>84347.740036</v>
+        <v>84347.740036000003</v>
       </c>
       <c r="AP2" s="1">
         <v>23.429928</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.277000</v>
+        <v>-101.277</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>84358.332622</v>
+        <v>84358.332622000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.432870</v>
+        <v>23.432870000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.480000</v>
+        <v>1254.48</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.338000</v>
+        <v>-120.33799999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>84369.504975</v>
+        <v>84369.504975000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.435974</v>
+        <v>23.435974000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.675000</v>
+        <v>-137.67500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>84380.144689</v>
+        <v>84380.144688999993</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.438929</v>
+        <v>23.438929000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.312000</v>
+        <v>-219.31200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>84390.832948</v>
+        <v>84390.832947999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.441898</v>
+        <v>23.441897999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.190000</v>
+        <v>1372.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.306000</v>
+        <v>-355.30599999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>84401.560951</v>
+        <v>84401.560951000007</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.444878</v>
+        <v>23.444877999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.910000</v>
+        <v>1486.91</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.040000</v>
+        <v>-576.04</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>84412.015095</v>
+        <v>84412.015094999995</v>
       </c>
       <c r="BT2" s="1">
         <v>23.447782</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.480000</v>
+        <v>1619.48</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.645000</v>
+        <v>-824.64499999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>84422.795655</v>
+        <v>84422.795654999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.450777</v>
+        <v>23.450776999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1771.180000</v>
+        <v>1771.18</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1093.790000</v>
+        <v>-1093.79</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>84433.793435</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.453832</v>
+        <v>23.453831999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>2187.100000</v>
+        <v>2187.1</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1745.870000</v>
+        <v>-1745.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>84264.578300</v>
+        <v>84264.578299999994</v>
       </c>
       <c r="B3" s="1">
         <v>23.406827</v>
       </c>
       <c r="C3" s="1">
-        <v>1152.260000</v>
+        <v>1152.26</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.819000</v>
+        <v>-258.81900000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>84274.973453</v>
+        <v>84274.973452999999</v>
       </c>
       <c r="G3" s="1">
-        <v>23.409715</v>
+        <v>23.409714999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.640000</v>
+        <v>1173.6400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.615000</v>
+        <v>-217.61500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>84285.496079</v>
+        <v>84285.496079000004</v>
       </c>
       <c r="L3" s="1">
-        <v>23.412638</v>
+        <v>23.412638000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.485000</v>
+        <v>-151.48500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>84296.017453</v>
+        <v>84296.017452999993</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.415560</v>
+        <v>23.415559999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1209.480000</v>
+        <v>1209.48</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.519000</v>
+        <v>-129.51900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>84306.929202</v>
+        <v>84306.929201999999</v>
       </c>
       <c r="V3" s="1">
-        <v>23.418591</v>
+        <v>23.418590999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.950000</v>
+        <v>1216.95</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.562000</v>
+        <v>-108.562</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>84317.114052</v>
+        <v>84317.114052000004</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.421421</v>
+        <v>23.421420999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.343600</v>
+        <v>-91.343599999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>84327.664698</v>
+        <v>84327.664697999993</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.424351</v>
+        <v>23.424351000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.678400</v>
+        <v>-86.678399999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>84337.819545</v>
+        <v>84337.819545000006</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.427172</v>
+        <v>23.427171999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.632000</v>
+        <v>-89.632000000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>84348.102603</v>
+        <v>84348.102603000007</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.430029</v>
+        <v>23.430029000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.259000</v>
+        <v>-101.259</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>84358.709054</v>
+        <v>84358.709054000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.432975</v>
+        <v>23.432974999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.480000</v>
+        <v>1254.48</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.334000</v>
+        <v>-120.334</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>84369.928560</v>
+        <v>84369.92856</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23.436091</v>
+        <v>23.436091000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.701000</v>
+        <v>-137.70099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>84380.567288</v>
+        <v>84380.567288000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.439046</v>
+        <v>23.439046000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.620000</v>
+        <v>1302.6199999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.341000</v>
+        <v>-219.34100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>84391.274895</v>
+        <v>84391.274894999995</v>
       </c>
       <c r="BJ3" s="1">
         <v>23.442021</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.318000</v>
+        <v>-355.31799999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>84401.678468</v>
+        <v>84401.678467999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.444911</v>
+        <v>23.444911000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.920000</v>
+        <v>1486.92</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.017000</v>
+        <v>-576.01700000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>84412.459510</v>
+        <v>84412.459510000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.447905</v>
+        <v>23.447904999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.620000</v>
+        <v>1619.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.619000</v>
+        <v>-824.61900000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>84423.268328</v>
+        <v>84423.268328000006</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.450908</v>
+        <v>23.450907999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.140000</v>
+        <v>1771.14</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1093.650000</v>
+        <v>-1093.6500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>84434.359369</v>
+        <v>84434.359368999998</v>
       </c>
       <c r="CD3" s="1">
         <v>23.453989</v>
       </c>
       <c r="CE3" s="1">
-        <v>2186.880000</v>
+        <v>2186.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1745.910000</v>
+        <v>-1745.91</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>84264.925001</v>
+        <v>84264.925000999996</v>
       </c>
       <c r="B4" s="1">
         <v>23.406924</v>
       </c>
       <c r="C4" s="1">
-        <v>1152.060000</v>
+        <v>1152.06</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.720000</v>
+        <v>-258.72000000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>84275.319396</v>
+        <v>84275.319396000006</v>
       </c>
       <c r="G4" s="1">
-        <v>23.409811</v>
+        <v>23.409811000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1173.850000</v>
+        <v>1173.8499999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.455000</v>
+        <v>-217.45500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>84286.163726</v>
+        <v>84286.163725999999</v>
       </c>
       <c r="L4" s="1">
-        <v>23.412823</v>
+        <v>23.412822999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1201.560000</v>
+        <v>1201.56</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.728000</v>
+        <v>-151.72800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>84296.676896</v>
+        <v>84296.676896000004</v>
       </c>
       <c r="Q4" s="1">
         <v>23.415744</v>
       </c>
       <c r="R4" s="1">
-        <v>1209.480000</v>
+        <v>1209.48</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.623000</v>
+        <v>-129.62299999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>84307.284337</v>
+        <v>84307.284337000005</v>
       </c>
       <c r="V4" s="1">
-        <v>23.418690</v>
+        <v>23.418690000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.990000</v>
+        <v>1216.99</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.569000</v>
+        <v>-108.569</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>84317.452852</v>
+        <v>84317.452852000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.421515</v>
+        <v>23.421514999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.770000</v>
+        <v>1224.77</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.257400</v>
+        <v>-91.257400000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>84328.008183</v>
+        <v>84328.008182999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.424447</v>
+        <v>23.424447000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.579400</v>
+        <v>-86.579400000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>84338.168761</v>
+        <v>84338.168760999994</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.427269</v>
+        <v>23.427268999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.700000</v>
+        <v>1236.7</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.644700</v>
+        <v>-89.6447</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>84348.461225</v>
+        <v>84348.461225000006</v>
       </c>
       <c r="AP4" s="1">
         <v>23.430128</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.282000</v>
+        <v>-101.282</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>84359.125730</v>
+        <v>84359.12573</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.433090</v>
+        <v>23.43309</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.358000</v>
+        <v>-120.358</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>84370.271801</v>
+        <v>84370.271800999995</v>
       </c>
       <c r="AZ4" s="1">
         <v>23.436187</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.703000</v>
+        <v>-137.703</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>84380.890144</v>
+        <v>84380.890144000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.439136</v>
+        <v>23.439136000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.329000</v>
+        <v>-219.32900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>84391.662755</v>
+        <v>84391.662754999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.442129</v>
+        <v>23.442129000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.270000</v>
+        <v>1372.27</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.372000</v>
+        <v>-355.37200000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>84402.102052</v>
+        <v>84402.102052000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.445028</v>
+        <v>23.445028000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.031000</v>
+        <v>-576.03099999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>84412.894534</v>
+        <v>84412.894534000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.448026</v>
+        <v>23.448025999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.450000</v>
+        <v>1619.45</v>
       </c>
       <c r="BV4" s="1">
-        <v>-824.579000</v>
+        <v>-824.57899999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>84423.702856</v>
+        <v>84423.702856000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.451029</v>
+        <v>23.451028999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.070000</v>
+        <v>1771.07</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1093.550000</v>
+        <v>-1093.55</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>84434.878680</v>
+        <v>84434.878679999994</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.454133</v>
+        <v>23.454132999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2187.600000</v>
+        <v>2187.6</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1744.200000</v>
+        <v>-1744.2</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>84265.610473</v>
+        <v>84265.610472999993</v>
       </c>
       <c r="B5" s="1">
         <v>23.407114</v>
       </c>
       <c r="C5" s="1">
-        <v>1152.250000</v>
+        <v>1152.25</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.882000</v>
+        <v>-258.88200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>84275.990251</v>
+        <v>84275.990250999996</v>
       </c>
       <c r="G5" s="1">
-        <v>23.409997</v>
+        <v>23.409997000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1173.640000</v>
+        <v>1173.6400000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.399000</v>
+        <v>-217.399</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>84286.533213</v>
+        <v>84286.533213000002</v>
       </c>
       <c r="L5" s="1">
-        <v>23.412926</v>
+        <v>23.412925999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.752000</v>
+        <v>-151.75200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>84297.062783</v>
+        <v>84297.062783000001</v>
       </c>
       <c r="Q5" s="1">
         <v>23.415851</v>
       </c>
       <c r="R5" s="1">
-        <v>1209.420000</v>
+        <v>1209.42</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.584000</v>
+        <v>-129.584</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>84307.626081</v>
+        <v>84307.626080999995</v>
       </c>
       <c r="V5" s="1">
         <v>23.418785</v>
       </c>
       <c r="W5" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.427000</v>
+        <v>-108.42700000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>84317.802004</v>
+        <v>84317.802003999997</v>
       </c>
       <c r="AA5" s="1">
         <v>23.421612</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.610000</v>
+        <v>1224.6099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.359000</v>
+        <v>-91.358999999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>84328.351911</v>
+        <v>84328.351911000005</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.424542</v>
+        <v>23.424541999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.635500</v>
+        <v>-86.635499999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>84338.597775</v>
+        <v>84338.597775000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.427388</v>
+        <v>23.427388000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.617900</v>
+        <v>-89.617900000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>84348.877882</v>
+        <v>84348.877882000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.430244</v>
+        <v>23.430243999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.272000</v>
+        <v>-101.27200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>84359.440194</v>
+        <v>84359.440193999995</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.433178</v>
+        <v>23.433178000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.356000</v>
+        <v>-120.35599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>84370.630397</v>
+        <v>84370.630397000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.436286</v>
+        <v>23.436285999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.693000</v>
+        <v>-137.69300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>84381.251233</v>
+        <v>84381.251233000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.439236</v>
+        <v>23.439236000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.342000</v>
+        <v>-219.34200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>84392.040705</v>
+        <v>84392.040705000007</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.442234</v>
+        <v>23.442233999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.200000</v>
+        <v>1372.2</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.351000</v>
+        <v>-355.351</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>84402.498355</v>
+        <v>84402.498355000003</v>
       </c>
       <c r="BO5" s="1">
         <v>23.445138</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.920000</v>
+        <v>1486.92</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.006000</v>
+        <v>-576.00599999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>84413.319573</v>
+        <v>84413.319573000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.448144</v>
+        <v>23.448143999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.560000</v>
+        <v>1619.56</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.486000</v>
+        <v>-824.48599999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>84424.124424</v>
+        <v>84424.124423999994</v>
       </c>
       <c r="BY5" s="1">
-        <v>23.451146</v>
+        <v>23.451146000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1771.060000</v>
+        <v>1771.06</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1093.690000</v>
+        <v>-1093.69</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>84435.396504</v>
+        <v>84435.396504000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.454277</v>
+        <v>23.454277000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2187.820000</v>
+        <v>2187.8200000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1744.530000</v>
+        <v>-1744.53</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>84265.961640</v>
+        <v>84265.961639999994</v>
       </c>
       <c r="B6" s="1">
-        <v>23.407212</v>
+        <v>23.407212000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1152.400000</v>
+        <v>1152.4000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.986000</v>
+        <v>-258.98599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84276.351834</v>
+        <v>84276.351834000001</v>
       </c>
       <c r="G6" s="1">
-        <v>23.410098</v>
+        <v>23.410098000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.820000</v>
+        <v>1173.82</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.150000</v>
+        <v>-217.15</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>84286.882894</v>
+        <v>84286.882893999995</v>
       </c>
       <c r="L6" s="1">
-        <v>23.413023</v>
+        <v>23.413022999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1201.580000</v>
+        <v>1201.58</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.565000</v>
+        <v>-151.565</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>84297.408991</v>
+        <v>84297.408991000004</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.415947</v>
+        <v>23.415946999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1209.410000</v>
+        <v>1209.4100000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.523000</v>
+        <v>-129.523</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>84307.976768</v>
+        <v>84307.976767999993</v>
       </c>
       <c r="V6" s="1">
         <v>23.418882</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.020000</v>
+        <v>1217.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.731000</v>
+        <v>-108.73099999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>84318.226611</v>
+        <v>84318.226611000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.421730</v>
+        <v>23.42173</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.333200</v>
+        <v>-91.333200000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>84328.774501</v>
+        <v>84328.774501000007</v>
       </c>
       <c r="AF6" s="1">
-        <v>23.424660</v>
+        <v>23.424659999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.550000</v>
+        <v>1229.55</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.649000</v>
+        <v>-86.649000000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>84338.867129</v>
+        <v>84338.867129000006</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.427463</v>
+        <v>23.427462999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.607700</v>
+        <v>-89.607699999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>84349.181434</v>
+        <v>84349.181433999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.430328</v>
+        <v>23.430327999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.580000</v>
+        <v>1244.58</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.269000</v>
+        <v>-101.26900000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>84359.803724</v>
+        <v>84359.803723999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.433279</v>
+        <v>23.433278999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.338000</v>
+        <v>-120.33799999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>84370.989533</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.436386</v>
+        <v>23.436385999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.708000</v>
+        <v>-137.708</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>84381.611825</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.439337</v>
+        <v>23.439336999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.352000</v>
+        <v>-219.352</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>84392.790160</v>
+        <v>84392.790160000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>23.442442</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.160000</v>
+        <v>1372.16</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.334000</v>
+        <v>-355.334</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>84402.924678</v>
+        <v>84402.924677999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.445257</v>
+        <v>23.445257000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.004000</v>
+        <v>-576.00400000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>84413.734261</v>
+        <v>84413.734261000005</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.448260</v>
+        <v>23.448260000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.600000</v>
+        <v>1619.6</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.421000</v>
+        <v>-824.42100000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>84424.547510</v>
+        <v>84424.547510000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.451263</v>
+        <v>23.451263000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.040000</v>
+        <v>1771.04</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1093.590000</v>
+        <v>-1093.5899999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>84435.949048</v>
+        <v>84435.949047999995</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.454430</v>
+        <v>23.454429999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2186.970000</v>
+        <v>2186.9699999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1746.050000</v>
+        <v>-1746.05</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>84266.302902</v>
+        <v>84266.302901999996</v>
       </c>
       <c r="B7" s="1">
-        <v>23.407306</v>
+        <v>23.407305999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1152.170000</v>
+        <v>1152.17</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.908000</v>
+        <v>-258.90800000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>84276.697050</v>
+        <v>84276.697050000002</v>
       </c>
       <c r="G7" s="1">
-        <v>23.410194</v>
+        <v>23.410194000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1173.650000</v>
+        <v>1173.6500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.412000</v>
+        <v>-217.41200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>84287.228109</v>
+        <v>84287.228109000003</v>
       </c>
       <c r="L7" s="1">
-        <v>23.413119</v>
+        <v>23.413118999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.693000</v>
+        <v>-151.69300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>84297.879198</v>
+        <v>84297.879197999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.416078</v>
+        <v>23.416077999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1209.450000</v>
+        <v>1209.45</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.521000</v>
+        <v>-129.52099999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>84308.399344</v>
+        <v>84308.399344000005</v>
       </c>
       <c r="V7" s="1">
-        <v>23.419000</v>
+        <v>23.419</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.960000</v>
+        <v>1216.96</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.701000</v>
+        <v>-108.70099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>84318.504836</v>
+        <v>84318.504835999993</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.421807</v>
+        <v>23.421807000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.730000</v>
+        <v>1224.73</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.305900</v>
+        <v>-91.305899999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>84329.043364</v>
+        <v>84329.043363999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.424734</v>
+        <v>23.424734000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.500000</v>
+        <v>1229.5</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.603600</v>
+        <v>-86.6036</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>84339.215817</v>
+        <v>84339.215817000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.427560</v>
+        <v>23.42756</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.628300</v>
+        <v>-89.628299999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>84349.539514</v>
+        <v>84349.539514000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.430428</v>
+        <v>23.430427999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.245000</v>
+        <v>-101.245</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>84360.170300</v>
+        <v>84360.170299999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.433381</v>
+        <v>23.433381000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.333000</v>
+        <v>-120.333</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>84371.705724</v>
+        <v>84371.705723999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.436585</v>
+        <v>23.436585000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.705000</v>
+        <v>-137.70500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>84382.333503</v>
+        <v>84382.333503000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.439537</v>
+        <v>23.439537000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.360000</v>
+        <v>-219.36</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>84393.162656</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.442545</v>
+        <v>23.442544999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.180000</v>
+        <v>1372.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.296000</v>
+        <v>-355.29599999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>84403.314771</v>
+        <v>84403.314771000005</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.445365</v>
+        <v>23.445364999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.006000</v>
+        <v>-576.00599999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>84414.163796</v>
+        <v>84414.163795999993</v>
       </c>
       <c r="BT7" s="1">
-        <v>23.448379</v>
+        <v>23.448378999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.550000</v>
+        <v>1619.55</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.279000</v>
+        <v>-824.279</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>84425.274150</v>
+        <v>84425.274149999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.451465</v>
+        <v>23.451464999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.030000</v>
+        <v>1771.03</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1093.730000</v>
+        <v>-1093.73</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>84436.788774</v>
+        <v>84436.788774000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.454664</v>
+        <v>23.454664000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2187.450000</v>
+        <v>2187.4499999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1744.000000</v>
+        <v>-1744</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>84266.649096</v>
+        <v>84266.649095999994</v>
       </c>
       <c r="B8" s="1">
-        <v>23.407403</v>
+        <v>23.407402999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1152.200000</v>
+        <v>1152.2</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.791000</v>
+        <v>-258.791</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>84277.050201</v>
+        <v>84277.050201000005</v>
       </c>
       <c r="G8" s="1">
-        <v>23.410292</v>
+        <v>23.410291999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.610000</v>
+        <v>1173.6099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.611000</v>
+        <v>-217.61099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>84287.679012</v>
+        <v>84287.679011999993</v>
       </c>
       <c r="L8" s="1">
-        <v>23.413244</v>
+        <v>23.413243999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1201.320000</v>
+        <v>1201.32</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.600000</v>
+        <v>-151.6</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>84298.119262</v>
+        <v>84298.119261999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>23.416144</v>
+        <v>23.416143999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1209.490000</v>
+        <v>1209.49</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.570000</v>
+        <v>-129.57</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>84308.679585</v>
+        <v>84308.679585000005</v>
       </c>
       <c r="V8" s="1">
-        <v>23.419078</v>
+        <v>23.419077999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.950000</v>
+        <v>1216.95</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.577000</v>
+        <v>-108.577</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>84318.851540</v>
+        <v>84318.851540000003</v>
       </c>
       <c r="AA8" s="1">
         <v>23.421903</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.730000</v>
+        <v>1224.73</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.199100</v>
+        <v>-91.199100000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>84329.390563</v>
+        <v>84329.390562999994</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.424831</v>
+        <v>23.424831000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.490000</v>
+        <v>1229.49</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.615700</v>
+        <v>-86.615700000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>84339.565495</v>
+        <v>84339.565495000003</v>
       </c>
       <c r="AK8" s="1">
         <v>23.427657</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.621700</v>
+        <v>-89.621700000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>84350.266152</v>
+        <v>84350.266151999997</v>
       </c>
       <c r="AP8" s="1">
         <v>23.430629</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.290000</v>
+        <v>-101.29</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>84360.899388</v>
+        <v>84360.899388000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.433583</v>
+        <v>23.433582999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.500000</v>
+        <v>1254.5</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.356000</v>
+        <v>-120.35599999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>84372.066316</v>
+        <v>84372.066315999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>23.436685</v>
+        <v>23.436685000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.850000</v>
+        <v>1262.8499999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.706000</v>
+        <v>-137.70599999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>84382.725838</v>
+        <v>84382.725837999998</v>
       </c>
       <c r="BE8" s="1">
         <v>23.439646</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.640000</v>
+        <v>1302.6400000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.340000</v>
+        <v>-219.34</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>84393.543087</v>
+        <v>84393.543086999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.442651</v>
+        <v>23.442651000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.190000</v>
+        <v>1372.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.251000</v>
+        <v>-355.25099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>84403.736866</v>
+        <v>84403.736866000007</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.445482</v>
+        <v>23.445481999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.910000</v>
+        <v>1486.91</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.003000</v>
+        <v>-576.00300000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>84414.903833</v>
+        <v>84414.903833000004</v>
       </c>
       <c r="BT8" s="1">
         <v>23.448584</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.530000</v>
+        <v>1619.53</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.251000</v>
+        <v>-824.25099999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>84425.388268</v>
+        <v>84425.388267999995</v>
       </c>
       <c r="BY8" s="1">
         <v>23.451497</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.050000</v>
+        <v>1771.05</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1093.680000</v>
+        <v>-1093.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>84437.029334</v>
+        <v>84437.029334000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.454730</v>
+        <v>23.454730000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2185.160000</v>
+        <v>2185.16</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1745.030000</v>
+        <v>-1745.03</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>84267.101446</v>
+        <v>84267.101446000001</v>
       </c>
       <c r="B9" s="1">
-        <v>23.407528</v>
+        <v>23.407527999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1152.080000</v>
+        <v>1152.08</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.715000</v>
+        <v>-258.71499999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>84277.474280</v>
+        <v>84277.474279999995</v>
       </c>
       <c r="G9" s="1">
-        <v>23.410410</v>
+        <v>23.410409999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.620000</v>
+        <v>1173.6199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-217.266000</v>
+        <v>-217.26599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>84287.926970</v>
+        <v>84287.92697</v>
       </c>
       <c r="L9" s="1">
-        <v>23.413313</v>
+        <v>23.413312999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1201.590000</v>
+        <v>1201.5899999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.597000</v>
+        <v>-151.59700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>84298.468978</v>
+        <v>84298.468978000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.416241</v>
+        <v>23.416240999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1209.470000</v>
+        <v>1209.47</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.562000</v>
+        <v>-129.56200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>84309.023839</v>
+        <v>84309.023839000001</v>
       </c>
       <c r="V9" s="1">
-        <v>23.419173</v>
+        <v>23.419173000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.920000</v>
+        <v>1216.92</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.574000</v>
+        <v>-108.574</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>84319.201751</v>
+        <v>84319.201751000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.422000</v>
+        <v>23.422000000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.313900</v>
+        <v>-91.313900000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>84329.730788</v>
+        <v>84329.730788000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.424925</v>
+        <v>23.424925000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.530000</v>
+        <v>1229.53</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.592600</v>
+        <v>-86.592600000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>84340.258870</v>
+        <v>84340.258870000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.427850</v>
+        <v>23.427849999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.592700</v>
+        <v>-89.592699999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>84350.625256</v>
+        <v>84350.625255999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.430729</v>
+        <v>23.430728999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.276000</v>
+        <v>-101.276</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>84361.288251</v>
+        <v>84361.288251000005</v>
       </c>
       <c r="AU9" s="1">
         <v>23.433691</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.351000</v>
+        <v>-120.351</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>84372.423964</v>
+        <v>84372.423964000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.436784</v>
+        <v>23.436783999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.709000</v>
+        <v>-137.709</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>84383.105278</v>
+        <v>84383.105278000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.439751</v>
+        <v>23.439751000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.640000</v>
+        <v>1302.6400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.326000</v>
+        <v>-219.32599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>84394.223630</v>
+        <v>84394.223629999993</v>
       </c>
       <c r="BJ9" s="1">
-        <v>23.442840</v>
+        <v>23.44284</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.270000</v>
+        <v>-355.27</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>84404.534470</v>
+        <v>84404.534469999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.445704</v>
+        <v>23.445703999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.870000</v>
+        <v>1486.87</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.079000</v>
+        <v>-576.07899999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>84415.038211</v>
+        <v>84415.038211000006</v>
       </c>
       <c r="BT9" s="1">
         <v>23.448622</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.470000</v>
+        <v>1619.47</v>
       </c>
       <c r="BV9" s="1">
-        <v>-824.112000</v>
+        <v>-824.11199999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>84425.823222</v>
+        <v>84425.823222000006</v>
       </c>
       <c r="BY9" s="1">
         <v>23.451618</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1771.220000</v>
+        <v>1771.22</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1093.550000</v>
+        <v>-1093.55</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>84437.563562</v>
+        <v>84437.563561999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.454879</v>
+        <v>23.454878999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>2187.230000</v>
+        <v>2187.23</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1746.020000</v>
+        <v>-1746.02</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>84267.367798</v>
+        <v>84267.367798000007</v>
       </c>
       <c r="B10" s="1">
-        <v>23.407602</v>
+        <v>23.407602000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1152.130000</v>
+        <v>1152.1300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-259.005000</v>
+        <v>-259.005</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>84277.750553</v>
+        <v>84277.750553000005</v>
       </c>
       <c r="G10" s="1">
-        <v>23.410486</v>
+        <v>23.410485999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1173.740000</v>
+        <v>1173.74</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.367000</v>
+        <v>-217.36699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>84288.272918</v>
+        <v>84288.272918000002</v>
       </c>
       <c r="L10" s="1">
-        <v>23.413409</v>
+        <v>23.413409000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1201.360000</v>
+        <v>1201.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.594000</v>
+        <v>-151.59399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>84298.818658</v>
+        <v>84298.818658000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.416339</v>
+        <v>23.416339000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1209.400000</v>
+        <v>1209.4000000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.612000</v>
+        <v>-129.61199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>84309.367566</v>
+        <v>84309.367566000001</v>
       </c>
       <c r="V10" s="1">
         <v>23.419269</v>
       </c>
       <c r="W10" s="1">
-        <v>1217.030000</v>
+        <v>1217.03</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.711000</v>
+        <v>-108.711</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>84319.899089</v>
+        <v>84319.899088999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.422194</v>
+        <v>23.422194000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.243400</v>
+        <v>-91.243399999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>84330.420722</v>
+        <v>84330.420721999995</v>
       </c>
       <c r="AF10" s="1">
         <v>23.425117</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.490000</v>
+        <v>1229.49</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.620400</v>
+        <v>-86.620400000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>84340.611029</v>
+        <v>84340.611029000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.427948</v>
+        <v>23.427948000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.624200</v>
+        <v>-89.624200000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>84350.981384</v>
+        <v>84350.981383999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.430828</v>
+        <v>23.430828000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.258000</v>
+        <v>-101.258</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>84361.655291</v>
+        <v>84361.655291000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.433793</v>
+        <v>23.433793000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.510000</v>
+        <v>1254.51</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.364000</v>
+        <v>-120.364</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>84373.096508</v>
+        <v>84373.096508000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>23.436971</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.700000</v>
+        <v>-137.69999999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>84383.781324</v>
+        <v>84383.781323999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.439939</v>
+        <v>23.439938999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.350000</v>
+        <v>-219.35</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>84394.335230</v>
+        <v>84394.335229999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>23.442871</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.220000</v>
+        <v>1372.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.352000</v>
+        <v>-355.35199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>84404.975376</v>
+        <v>84404.975376000002</v>
       </c>
       <c r="BO10" s="1">
         <v>23.445826</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.920000</v>
+        <v>1486.92</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.015000</v>
+        <v>-576.01499999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>84415.449890</v>
+        <v>84415.449890000004</v>
       </c>
       <c r="BT10" s="1">
         <v>23.448736</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.390000</v>
+        <v>1619.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.029000</v>
+        <v>-824.029</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>84426.241883</v>
+        <v>84426.241882999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.451734</v>
+        <v>23.451733999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.970000</v>
+        <v>1770.97</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1093.660000</v>
+        <v>-1093.6600000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>84438.105158</v>
+        <v>84438.105158000006</v>
       </c>
       <c r="CD10" s="1">
         <v>23.455029</v>
       </c>
       <c r="CE10" s="1">
-        <v>2186.540000</v>
+        <v>2186.54</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1743.790000</v>
+        <v>-1743.79</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>84267.710534</v>
+        <v>84267.710533999998</v>
       </c>
       <c r="B11" s="1">
-        <v>23.407697</v>
+        <v>23.407696999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1152.210000</v>
+        <v>1152.21</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.053000</v>
+        <v>-259.053</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>84278.196456</v>
+        <v>84278.196456000005</v>
       </c>
       <c r="G11" s="1">
-        <v>23.410610</v>
+        <v>23.410609999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1173.780000</v>
+        <v>1173.78</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.646000</v>
+        <v>-217.64599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>84288.633770</v>
+        <v>84288.63377</v>
       </c>
       <c r="L11" s="1">
-        <v>23.413509</v>
+        <v>23.413509000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.681000</v>
+        <v>-151.68100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>84299.515532</v>
+        <v>84299.515532000005</v>
       </c>
       <c r="Q11" s="1">
         <v>23.416532</v>
       </c>
       <c r="R11" s="1">
-        <v>1209.410000</v>
+        <v>1209.4100000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.567000</v>
+        <v>-129.56700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>84310.053998</v>
+        <v>84310.053998000003</v>
       </c>
       <c r="V11" s="1">
         <v>23.419459</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.950000</v>
+        <v>1216.95</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.721000</v>
+        <v>-108.721</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>84320.249760</v>
+        <v>84320.249760000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.422292</v>
+        <v>23.422291999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.760000</v>
+        <v>1224.76</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.333900</v>
+        <v>-91.3339</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>84330.761511</v>
+        <v>84330.761511000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.425212</v>
+        <v>23.425211999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.520000</v>
+        <v>1229.52</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.621600</v>
+        <v>-86.621600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>84340.957733</v>
+        <v>84340.957733000003</v>
       </c>
       <c r="AK11" s="1">
         <v>23.428044</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.639900</v>
+        <v>-89.639899999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>84351.652471</v>
+        <v>84351.652470999994</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.431015</v>
+        <v>23.431014999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.280000</v>
+        <v>-101.28</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>84362.328893</v>
+        <v>84362.328892999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.433980</v>
+        <v>23.433979999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.343000</v>
+        <v>-120.343</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>84373.501242</v>
+        <v>84373.501241999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>23.437084</v>
+        <v>23.437083999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.704000</v>
+        <v>-137.70400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>84384.189035</v>
+        <v>84384.189035000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.440053</v>
+        <v>23.440052999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.357000</v>
+        <v>-219.357</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>84394.699262</v>
+        <v>84394.699261999995</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.442972</v>
+        <v>23.442972000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.190000</v>
+        <v>1372.19</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.357000</v>
+        <v>-355.35700000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>84405.374178</v>
+        <v>84405.374177999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.445937</v>
+        <v>23.445937000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.890000</v>
+        <v>1486.89</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.015000</v>
+        <v>-576.01499999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>84415.878931</v>
+        <v>84415.878930999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.448855</v>
+        <v>23.448854999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.310000</v>
+        <v>1619.31</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.967000</v>
+        <v>-823.96699999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>84426.671876</v>
+        <v>84426.671875999993</v>
       </c>
       <c r="BY11" s="1">
         <v>23.451853</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.090000</v>
+        <v>1771.09</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1093.770000</v>
+        <v>-1093.77</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>84438.646292</v>
+        <v>84438.646292000005</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.455180</v>
+        <v>23.455179999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2185.820000</v>
+        <v>2185.8200000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1746.290000</v>
+        <v>-1746.29</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>84268.050300</v>
+        <v>84268.050300000003</v>
       </c>
       <c r="B12" s="1">
-        <v>23.407792</v>
+        <v>23.407792000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1152.240000</v>
+        <v>1152.24</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.835000</v>
+        <v>-258.83499999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>84278.798599</v>
+        <v>84278.798599000002</v>
       </c>
       <c r="G12" s="1">
         <v>23.410777</v>
       </c>
       <c r="H12" s="1">
-        <v>1173.790000</v>
+        <v>1173.79</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.499000</v>
+        <v>-217.499</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>84289.322713</v>
+        <v>84289.322713000001</v>
       </c>
       <c r="L12" s="1">
         <v>23.413701</v>
       </c>
       <c r="M12" s="1">
-        <v>1201.720000</v>
+        <v>1201.72</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.700000</v>
+        <v>-151.69999999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>84299.865216</v>
+        <v>84299.865216000006</v>
       </c>
       <c r="Q12" s="1">
         <v>23.416629</v>
       </c>
       <c r="R12" s="1">
-        <v>1209.370000</v>
+        <v>1209.3699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.505000</v>
+        <v>-129.505</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>84310.398221</v>
+        <v>84310.398220999996</v>
       </c>
       <c r="V12" s="1">
-        <v>23.419555</v>
+        <v>23.419554999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.900000</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.533000</v>
+        <v>-108.533</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>84320.597456</v>
+        <v>84320.597456000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.422388</v>
+        <v>23.422388000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.183300</v>
+        <v>-91.183300000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>84331.105698</v>
+        <v>84331.105697999999</v>
       </c>
       <c r="AF12" s="1">
         <v>23.425307</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.510000</v>
+        <v>1229.51</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.564700</v>
+        <v>-86.564700000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>84341.620916</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.428228</v>
+        <v>23.428228000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.634600</v>
+        <v>-89.634600000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>84352.087958</v>
+        <v>84352.087958000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.431136</v>
+        <v>23.431135999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.242000</v>
+        <v>-101.242</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>84362.780216</v>
+        <v>84362.780215999999</v>
       </c>
       <c r="AU12" s="1">
         <v>23.434106</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.350000</v>
+        <v>-120.35</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>84373.884153</v>
+        <v>84373.884153000006</v>
       </c>
       <c r="AZ12" s="1">
-        <v>23.437190</v>
+        <v>23.437190000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.691000</v>
+        <v>-137.691</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>84384.578891</v>
+        <v>84384.578890999997</v>
       </c>
       <c r="BE12" s="1">
         <v>23.440161</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.660000</v>
+        <v>1302.6600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.331000</v>
+        <v>-219.33099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>84395.075396</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.443076</v>
+        <v>23.443076000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.160000</v>
+        <v>1372.16</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.303000</v>
+        <v>-355.303</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>84405.803199</v>
+        <v>84405.803199000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>23.446056</v>
+        <v>23.446055999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.981000</v>
+        <v>-575.98099999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>84416.297554</v>
+        <v>84416.297554000004</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.448972</v>
+        <v>23.448972000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.340000</v>
+        <v>1619.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.881000</v>
+        <v>-823.88099999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>84427.091987</v>
+        <v>84427.091987000007</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.451970</v>
+        <v>23.451969999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.190000</v>
+        <v>1771.19</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1093.780000</v>
+        <v>-1093.78</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>84439.184451</v>
+        <v>84439.184450999994</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.455329</v>
+        <v>23.455328999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2187.710000</v>
+        <v>2187.71</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1744.410000</v>
+        <v>-1744.41</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>84268.740725</v>
+        <v>84268.740724999996</v>
       </c>
       <c r="B13" s="1">
-        <v>23.407984</v>
+        <v>23.407983999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1152.350000</v>
+        <v>1152.3499999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.782000</v>
+        <v>-258.78199999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>84279.150300</v>
+        <v>84279.150299999994</v>
       </c>
       <c r="G13" s="1">
-        <v>23.410875</v>
+        <v>23.410875000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.850000</v>
+        <v>1173.8499999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.728000</v>
+        <v>-217.72800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>84289.663007</v>
+        <v>84289.663006999996</v>
       </c>
       <c r="L13" s="1">
         <v>23.413795</v>
       </c>
       <c r="M13" s="1">
-        <v>1201.570000</v>
+        <v>1201.57</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.360000</v>
+        <v>-151.36000000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>84300.212379</v>
+        <v>84300.212379000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.416726</v>
+        <v>23.416726000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1209.460000</v>
+        <v>1209.46</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.528000</v>
+        <v>-129.52799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>84310.739966</v>
+        <v>84310.739965999994</v>
       </c>
       <c r="V13" s="1">
-        <v>23.419650</v>
+        <v>23.419650000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.366000</v>
+        <v>-108.366</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>84321.257136</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.422571</v>
+        <v>23.422571000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.340500</v>
+        <v>-91.340500000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>84331.769382</v>
+        <v>84331.769381999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.425491</v>
+        <v>23.425491000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.520000</v>
+        <v>1229.52</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.666000</v>
+        <v>-86.665999999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>84342.005284</v>
+        <v>84342.005283999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.428335</v>
+        <v>23.428335000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.617500</v>
+        <v>-89.617500000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>84352.445078</v>
+        <v>84352.445078000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.431235</v>
+        <v>23.431235000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.580000</v>
+        <v>1244.58</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.253000</v>
+        <v>-101.253</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>84363.145768</v>
+        <v>84363.145768000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.434207</v>
+        <v>23.434207000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.490000</v>
+        <v>1254.49</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.342000</v>
+        <v>-120.342</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>84374.244782</v>
+        <v>84374.244781999994</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.437290</v>
+        <v>23.437290000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.840000</v>
+        <v>1262.8399999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.709000</v>
+        <v>-137.709</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>84384.941468</v>
+        <v>84384.941468000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.440262</v>
+        <v>23.440262000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.640000</v>
+        <v>1302.6400000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.338000</v>
+        <v>-219.33799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>84395.499804</v>
+        <v>84395.499804000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.443194</v>
+        <v>23.443193999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.180000</v>
+        <v>1372.18</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.307000</v>
+        <v>-355.30700000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>84406.193054</v>
+        <v>84406.193054000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.446165</v>
+        <v>23.446165000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.850000</v>
+        <v>1486.85</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.998000</v>
+        <v>-575.99800000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>84416.708736</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.449086</v>
+        <v>23.449086000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.240000</v>
+        <v>1619.24</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.927000</v>
+        <v>-823.92700000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>84427.507634</v>
+        <v>84427.507633999994</v>
       </c>
       <c r="BY13" s="1">
         <v>23.452085</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.020000</v>
+        <v>1771.02</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1093.730000</v>
+        <v>-1093.73</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>84439.721122</v>
+        <v>84439.721122000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.455478</v>
+        <v>23.455477999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2185.010000</v>
+        <v>2185.0100000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1744.970000</v>
+        <v>-1744.97</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>84269.078004</v>
+        <v>84269.078003999995</v>
       </c>
       <c r="B14" s="1">
-        <v>23.408077</v>
+        <v>23.408076999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1152.510000</v>
+        <v>1152.51</v>
       </c>
       <c r="D14" s="1">
-        <v>-259.080000</v>
+        <v>-259.08</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>84279.490059</v>
+        <v>84279.490059000003</v>
       </c>
       <c r="G14" s="1">
-        <v>23.410969</v>
+        <v>23.410969000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.880000</v>
+        <v>1173.8800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.787000</v>
+        <v>-217.78700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>84290.015661</v>
+        <v>84290.015660999998</v>
       </c>
       <c r="L14" s="1">
-        <v>23.413893</v>
+        <v>23.413893000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1201.340000</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.549000</v>
+        <v>-151.54900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>84300.877048</v>
+        <v>84300.877047999995</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.416910</v>
+        <v>23.416910000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.624000</v>
+        <v>-129.624</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>84311.398156</v>
+        <v>84311.398155999996</v>
       </c>
       <c r="V14" s="1">
-        <v>23.419833</v>
+        <v>23.419833000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1217.010000</v>
+        <v>1217.01</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.537000</v>
+        <v>-108.53700000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>84321.641039</v>
+        <v>84321.641038999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.422678</v>
+        <v>23.422678000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.740000</v>
+        <v>1224.74</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.356200</v>
+        <v>-91.356200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>84332.132914</v>
+        <v>84332.132914000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.425592</v>
+        <v>23.425592000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.530000</v>
+        <v>1229.53</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.616300</v>
+        <v>-86.616299999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>84342.350995</v>
+        <v>84342.350995000001</v>
       </c>
       <c r="AK14" s="1">
         <v>23.428431</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.629000</v>
+        <v>-89.629000000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>84352.811627</v>
+        <v>84352.811627000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.431337</v>
+        <v>23.431336999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.246000</v>
+        <v>-101.246</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>84363.507848</v>
+        <v>84363.507847999994</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.434308</v>
+        <v>23.434308000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.500000</v>
+        <v>1254.5</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.347000</v>
+        <v>-120.34699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>84374.673289</v>
+        <v>84374.673288999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.437409</v>
+        <v>23.437408999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.691000</v>
+        <v>-137.691</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>84385.375962</v>
+        <v>84385.375962000006</v>
       </c>
       <c r="BE14" s="1">
         <v>23.440382</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.361000</v>
+        <v>-219.36099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>84395.825371</v>
+        <v>84395.825370999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.443285</v>
+        <v>23.443284999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.270000</v>
+        <v>1372.27</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.263000</v>
+        <v>-355.26299999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>84406.609734</v>
+        <v>84406.609733999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.446280</v>
+        <v>23.446280000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.850000</v>
+        <v>1486.85</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.001000</v>
+        <v>-576.00099999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>84417.122896</v>
+        <v>84417.122896000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.449201</v>
+        <v>23.449200999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.030000</v>
+        <v>1619.03</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.837000</v>
+        <v>-823.83699999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>84427.963989</v>
+        <v>84427.963988999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.452212</v>
+        <v>23.452211999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.120000</v>
+        <v>1771.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1093.780000</v>
+        <v>-1093.78</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>84440.263746</v>
+        <v>84440.263745999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.455629</v>
+        <v>23.455628999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2187.470000</v>
+        <v>2187.4699999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1745.600000</v>
+        <v>-1745.6</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>84269.413795</v>
       </c>
       <c r="B15" s="1">
-        <v>23.408170</v>
+        <v>23.408169999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1151.990000</v>
+        <v>1151.99</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.831000</v>
+        <v>-258.83100000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>84280.187397</v>
+        <v>84280.187397000002</v>
       </c>
       <c r="G15" s="1">
-        <v>23.411163</v>
+        <v>23.411162999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.850000</v>
+        <v>1173.8499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.427000</v>
+        <v>-217.42699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>84290.715479</v>
+        <v>84290.715479000006</v>
       </c>
       <c r="L15" s="1">
         <v>23.414088</v>
       </c>
       <c r="M15" s="1">
-        <v>1201.570000</v>
+        <v>1201.57</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.583000</v>
+        <v>-151.583</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>84301.257449</v>
+        <v>84301.257448999997</v>
       </c>
       <c r="Q15" s="1">
         <v>23.417016</v>
       </c>
       <c r="R15" s="1">
-        <v>1209.450000</v>
+        <v>1209.45</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.566000</v>
+        <v>-129.566</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>84311.772140</v>
+        <v>84311.772140000001</v>
       </c>
       <c r="V15" s="1">
-        <v>23.419937</v>
+        <v>23.419937000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.625000</v>
+        <v>-108.625</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>84321.990253</v>
+        <v>84321.990252999996</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.422775</v>
+        <v>23.422775000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.269500</v>
+        <v>-91.269499999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>84332.480944</v>
+        <v>84332.480943999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.425689</v>
+        <v>23.425688999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.520000</v>
+        <v>1229.52</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.594500</v>
+        <v>-86.594499999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>84342.701703</v>
+        <v>84342.701702999999</v>
       </c>
       <c r="AK15" s="1">
         <v>23.428528</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.660000</v>
+        <v>1236.6600000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.626900</v>
+        <v>-89.626900000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>84353.250084</v>
+        <v>84353.250083999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.431458</v>
+        <v>23.431457999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.254000</v>
+        <v>-101.254</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>84363.940855</v>
+        <v>84363.940854999993</v>
       </c>
       <c r="AU15" s="1">
         <v>23.434428</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.480000</v>
+        <v>1254.48</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.351000</v>
+        <v>-120.351</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>84374.961465</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.437489</v>
+        <v>23.437488999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.840000</v>
+        <v>1262.8399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.701000</v>
+        <v>-137.70099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>84385.664666</v>
+        <v>84385.664665999997</v>
       </c>
       <c r="BE15" s="1">
         <v>23.440462</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.690000</v>
+        <v>1302.69</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.341000</v>
+        <v>-219.34100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>84396.210573</v>
+        <v>84396.210573000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.443392</v>
+        <v>23.443391999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.200000</v>
+        <v>1372.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.344000</v>
+        <v>-355.34399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>84407.007689</v>
+        <v>84407.007689000005</v>
       </c>
       <c r="BO15" s="1">
-        <v>23.446391</v>
+        <v>23.446390999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.870000</v>
+        <v>1486.87</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.970000</v>
+        <v>-575.97</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>84417.539040</v>
+        <v>84417.539040000003</v>
       </c>
       <c r="BT15" s="1">
         <v>23.449316</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.010000</v>
+        <v>1619.01</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.869000</v>
+        <v>-823.86900000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>84428.409894</v>
+        <v>84428.409893999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.452336</v>
+        <v>23.452335999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1771.290000</v>
+        <v>1771.29</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1093.640000</v>
+        <v>-1093.6400000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>84440.801906</v>
+        <v>84440.801905999993</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.455778</v>
+        <v>23.455777999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2186.030000</v>
+        <v>2186.0300000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1744.040000</v>
+        <v>-1744.04</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>84270.145395</v>
       </c>
       <c r="B16" s="1">
-        <v>23.408374</v>
+        <v>23.408373999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1152.450000</v>
+        <v>1152.45</v>
       </c>
       <c r="D16" s="1">
-        <v>-259.061000</v>
+        <v>-259.06099999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>84280.523685</v>
+        <v>84280.523684999993</v>
       </c>
       <c r="G16" s="1">
-        <v>23.411257</v>
+        <v>23.411256999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.910000</v>
+        <v>1173.9100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.289000</v>
+        <v>-217.28899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>84291.065159</v>
+        <v>84291.065159000005</v>
       </c>
       <c r="L16" s="1">
         <v>23.414185</v>
       </c>
       <c r="M16" s="1">
-        <v>1201.550000</v>
+        <v>1201.55</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.644000</v>
+        <v>-151.64400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>84301.609150</v>
+        <v>84301.609150000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.417114</v>
+        <v>23.417114000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1209.400000</v>
+        <v>1209.4000000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.569000</v>
+        <v>-129.56899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>84312.112893</v>
+        <v>84312.112892999998</v>
       </c>
       <c r="V16" s="1">
-        <v>23.420031</v>
+        <v>23.420031000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1217.090000</v>
+        <v>1217.0899999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.550000</v>
+        <v>-108.55</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>84322.339438</v>
+        <v>84322.339437999995</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.422872</v>
+        <v>23.422872000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.770000</v>
+        <v>1224.77</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.330600</v>
+        <v>-91.330600000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>84332.903728</v>
+        <v>84332.903728000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.425807</v>
+        <v>23.425806999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.510000</v>
+        <v>1229.51</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.658000</v>
+        <v>-86.658000000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>84343.123763</v>
+        <v>84343.123762999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.428645</v>
+        <v>23.428644999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.670000</v>
+        <v>1236.67</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.643600</v>
+        <v>-89.643600000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>84353.530837</v>
+        <v>84353.530836999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>23.431536</v>
+        <v>23.431536000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.255000</v>
+        <v>-101.255</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>84364.239942</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.434511</v>
+        <v>23.434511000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.500000</v>
+        <v>1254.5</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.343000</v>
+        <v>-120.343</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>84375.321063</v>
+        <v>84375.321062999996</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.437589</v>
+        <v>23.437588999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.697000</v>
+        <v>-137.697</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>84386.022758</v>
+        <v>84386.022758000006</v>
       </c>
       <c r="BE16" s="1">
         <v>23.440562</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.620000</v>
+        <v>1302.6199999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.334000</v>
+        <v>-219.334</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>84396.599435</v>
+        <v>84396.599434999996</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.443500</v>
+        <v>23.4435</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.190000</v>
+        <v>1372.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.267000</v>
+        <v>-355.267</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>84407.434578</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.446510</v>
+        <v>23.44651</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.890000</v>
+        <v>1486.89</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.018000</v>
+        <v>-576.01800000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>84417.976015</v>
+        <v>84417.976014999993</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.449438</v>
+        <v>23.449438000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1618.920000</v>
+        <v>1618.92</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.927000</v>
+        <v>-823.92700000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>84428.867168</v>
+        <v>84428.867167999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.452463</v>
+        <v>23.452463000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.140000</v>
+        <v>1771.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1093.670000</v>
+        <v>-1093.67</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>84441.343536</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.455929</v>
+        <v>23.455929000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2186.260000</v>
+        <v>2186.2600000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1746.590000</v>
+        <v>-1746.59</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>84270.435555</v>
+        <v>84270.435555000004</v>
       </c>
       <c r="B17" s="1">
-        <v>23.408454</v>
+        <v>23.408453999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1152.340000</v>
+        <v>1152.3399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.876000</v>
+        <v>-258.87599999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>84280.866420</v>
+        <v>84280.866420000006</v>
       </c>
       <c r="G17" s="1">
-        <v>23.411352</v>
+        <v>23.411352000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1173.680000</v>
+        <v>1173.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.405000</v>
+        <v>-217.405</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>84291.407927</v>
+        <v>84291.407926999993</v>
       </c>
       <c r="L17" s="1">
-        <v>23.414280</v>
+        <v>23.414280000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1201.500000</v>
+        <v>1201.5</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.744000</v>
+        <v>-151.744</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>84301.958792</v>
+        <v>84301.958792000005</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.417211</v>
+        <v>23.417211000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1209.460000</v>
+        <v>1209.46</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.528000</v>
+        <v>-129.52799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>84312.466540</v>
+        <v>84312.466539999994</v>
       </c>
       <c r="V17" s="1">
-        <v>23.420130</v>
+        <v>23.42013</v>
       </c>
       <c r="W17" s="1">
-        <v>1217.000000</v>
+        <v>1217</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.529000</v>
+        <v>-108.529</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>84322.768476</v>
+        <v>84322.768475999997</v>
       </c>
       <c r="AA17" s="1">
         <v>23.422991</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.850000</v>
+        <v>1224.8499999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.199100</v>
+        <v>-91.199100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>84333.193870</v>
+        <v>84333.193870000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.425887</v>
+        <v>23.425886999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.500000</v>
+        <v>1229.5</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.631300</v>
+        <v>-86.631299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>84343.405986</v>
+        <v>84343.405985999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.428724</v>
+        <v>23.428723999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.670000</v>
+        <v>1236.67</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.614600</v>
+        <v>-89.614599999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>84353.893893</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.431637</v>
+        <v>23.431636999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.248000</v>
+        <v>-101.248</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>84364.607478</v>
+        <v>84364.607478000005</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.434613</v>
+        <v>23.434612999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.480000</v>
+        <v>1254.48</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.342000</v>
+        <v>-120.342</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>84375.680167</v>
+        <v>84375.680166999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.437689</v>
+        <v>23.437688999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.696000</v>
+        <v>-137.696</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>84386.614968</v>
+        <v>84386.614967999994</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.440726</v>
+        <v>23.440726000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.318000</v>
+        <v>-219.31800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>84397.348890</v>
+        <v>84397.348889999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.443708</v>
+        <v>23.443708000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.280000</v>
+        <v>1372.28</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.265000</v>
+        <v>-355.26499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>84407.827374</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.446619</v>
+        <v>23.446618999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.850000</v>
+        <v>1486.85</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.992000</v>
+        <v>-575.99199999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>84418.403566</v>
+        <v>84418.403565999994</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.449557</v>
+        <v>23.449556999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1618.800000</v>
+        <v>1618.8</v>
       </c>
       <c r="BV17" s="1">
-        <v>-823.969000</v>
+        <v>-823.96900000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>84429.315554</v>
+        <v>84429.315554000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.452588</v>
+        <v>23.452587999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1093.820000</v>
+        <v>-1093.82</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>84442.195167</v>
+        <v>84442.195166999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.456165</v>
+        <v>23.456164999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2185.150000</v>
+        <v>2185.15</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1744.520000</v>
+        <v>-1744.52</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>84270.796181</v>
+        <v>84270.796180999998</v>
       </c>
       <c r="B18" s="1">
-        <v>23.408554</v>
+        <v>23.408553999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1152.230000</v>
+        <v>1152.23</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.870000</v>
+        <v>-258.87</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>84281.211413</v>
+        <v>84281.211412999997</v>
       </c>
       <c r="G18" s="1">
         <v>23.411448</v>
       </c>
       <c r="H18" s="1">
-        <v>1173.540000</v>
+        <v>1173.54</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.586000</v>
+        <v>-217.58600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>84291.754598</v>
       </c>
       <c r="L18" s="1">
-        <v>23.414376</v>
+        <v>23.414376000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1201.220000</v>
+        <v>1201.22</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.647000</v>
+        <v>-151.64699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>84302.412135</v>
+        <v>84302.412135000006</v>
       </c>
       <c r="Q18" s="1">
         <v>23.417337</v>
       </c>
       <c r="R18" s="1">
-        <v>1209.520000</v>
+        <v>1209.52</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.491000</v>
+        <v>-129.49100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>84312.892602</v>
+        <v>84312.892602000007</v>
       </c>
       <c r="V18" s="1">
-        <v>23.420248</v>
+        <v>23.420248000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.030000</v>
+        <v>1217.03</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.569000</v>
+        <v>-108.569</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>84323.047693</v>
       </c>
       <c r="AA18" s="1">
-        <v>23.423069</v>
+        <v>23.423069000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.760000</v>
+        <v>1224.76</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.327500</v>
+        <v>-91.327500000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>84333.538574</v>
+        <v>84333.538574000006</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.425983</v>
+        <v>23.425982999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.510000</v>
+        <v>1229.51</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.608600</v>
+        <v>-86.608599999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>84343.754705</v>
+        <v>84343.754704999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.428821</v>
+        <v>23.428820999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.660000</v>
+        <v>1236.6600000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.596300</v>
+        <v>-89.596299999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>84354.252499</v>
+        <v>84354.252498999995</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.431737</v>
+        <v>23.431736999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.251000</v>
+        <v>-101.251</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>84364.971046</v>
+        <v>84364.971046000006</v>
       </c>
       <c r="AU18" s="1">
         <v>23.434714</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.520000</v>
+        <v>1254.52</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.367000</v>
+        <v>-120.367</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>84376.404326</v>
+        <v>84376.404326000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.437890</v>
+        <v>23.437889999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.716000</v>
+        <v>-137.71600000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>84386.758808</v>
+        <v>84386.758807999999</v>
       </c>
       <c r="BE18" s="1">
         <v>23.440766</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.630000</v>
+        <v>1302.6300000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.331000</v>
+        <v>-219.33099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>84397.750650</v>
+        <v>84397.750650000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.443820</v>
+        <v>23.443819999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.280000</v>
+        <v>1372.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.331000</v>
+        <v>-355.33100000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>84408.248013</v>
+        <v>84408.248013000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.446736</v>
+        <v>23.446736000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.850000</v>
+        <v>1486.85</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.985000</v>
+        <v>-575.98500000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>84418.815780</v>
+        <v>84418.815780000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.449671</v>
+        <v>23.449670999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1618.750000</v>
+        <v>1618.75</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.912000</v>
+        <v>-823.91200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>84430.091791</v>
+        <v>84430.091790999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.452803</v>
+        <v>23.452802999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.020000</v>
+        <v>1771.02</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1093.720000</v>
+        <v>-1093.72</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>84442.421343</v>
+        <v>84442.421342999995</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.456228</v>
+        <v>23.456227999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2185.470000</v>
+        <v>2185.4699999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1744.370000</v>
+        <v>-1744.37</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>84271.131938</v>
+        <v>84271.131938000006</v>
       </c>
       <c r="B19" s="1">
-        <v>23.408648</v>
+        <v>23.408647999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1152.090000</v>
+        <v>1152.0899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-259.001000</v>
+        <v>-259.00099999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>84281.663491</v>
+        <v>84281.663490999999</v>
       </c>
       <c r="G19" s="1">
-        <v>23.411573</v>
+        <v>23.411573000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1173.680000</v>
+        <v>1173.68</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.650000</v>
+        <v>-217.65</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>84292.190613</v>
+        <v>84292.190612999999</v>
       </c>
       <c r="L19" s="1">
-        <v>23.414497</v>
+        <v>23.414497000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1201.390000</v>
+        <v>1201.3900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.908000</v>
+        <v>-151.90799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>84302.668567</v>
+        <v>84302.668567000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.417408</v>
+        <v>23.417408000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.504000</v>
+        <v>-129.50399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>84313.167882</v>
+        <v>84313.167881999994</v>
       </c>
       <c r="V19" s="1">
-        <v>23.420324</v>
+        <v>23.420324000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.433000</v>
+        <v>-108.43300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>84323.397387</v>
+        <v>84323.397387000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.423166</v>
+        <v>23.423165999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.341400</v>
+        <v>-91.341399999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>84333.881312</v>
+        <v>84333.881311999998</v>
       </c>
       <c r="AF19" s="1">
         <v>23.426078</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.520000</v>
+        <v>1229.52</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.626100</v>
+        <v>-86.626099999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>84344.101377</v>
+        <v>84344.101376999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.428917</v>
+        <v>23.428916999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.670000</v>
+        <v>1236.67</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.628300</v>
+        <v>-89.628299999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>84354.977659</v>
+        <v>84354.977658999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.431938</v>
+        <v>23.431937999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.269000</v>
+        <v>-101.26900000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>84365.700660</v>
+        <v>84365.700660000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.434917</v>
+        <v>23.434916999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.480000</v>
+        <v>1254.48</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.336000</v>
+        <v>-120.336</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>84376.783797</v>
+        <v>84376.783796999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.437995</v>
+        <v>23.437995000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.705000</v>
+        <v>-137.70500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>84387.139768</v>
+        <v>84387.139767999994</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.440872</v>
+        <v>23.440871999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.620000</v>
+        <v>1302.6199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.326000</v>
+        <v>-219.32599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>84398.126154</v>
+        <v>84398.126153999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.443924</v>
+        <v>23.443923999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.220000</v>
+        <v>1372.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.341000</v>
+        <v>-355.34100000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>84408.966715</v>
+        <v>84408.966715000002</v>
       </c>
       <c r="BO19" s="1">
         <v>23.446935</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.933000</v>
+        <v>-575.93299999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>84419.564701</v>
+        <v>84419.564700999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.449879</v>
+        <v>23.449878999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1618.710000</v>
+        <v>1618.71</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.109000</v>
+        <v>-824.10900000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>84430.219298</v>
+        <v>84430.219297999996</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.452839</v>
+        <v>23.452839000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.150000</v>
+        <v>1771.15</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1093.670000</v>
+        <v>-1093.67</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>84442.940691</v>
+        <v>84442.940690999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.456372</v>
+        <v>23.456372000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>2185.800000</v>
+        <v>2185.8000000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1746.320000</v>
+        <v>-1746.32</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>84271.580320</v>
+        <v>84271.580319999994</v>
       </c>
       <c r="B20" s="1">
-        <v>23.408772</v>
+        <v>23.408771999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1152.320000</v>
+        <v>1152.32</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.947000</v>
+        <v>-258.947</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>84281.930339</v>
+        <v>84281.930338999999</v>
       </c>
       <c r="G20" s="1">
-        <v>23.411647</v>
+        <v>23.411646999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1173.860000</v>
+        <v>1173.8599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.582000</v>
+        <v>-217.58199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>84292.468838</v>
+        <v>84292.468838000001</v>
       </c>
       <c r="L20" s="1">
-        <v>23.414575</v>
+        <v>23.414574999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1201.340000</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.641000</v>
+        <v>-151.64099999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>84303.013287</v>
+        <v>84303.013286999994</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.417504</v>
+        <v>23.417504000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1209.480000</v>
+        <v>1209.48</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.531000</v>
+        <v>-129.53100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>84313.511609</v>
+        <v>84313.511608999994</v>
       </c>
       <c r="V20" s="1">
-        <v>23.420420</v>
+        <v>23.42042</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.970000</v>
+        <v>1216.97</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.557000</v>
+        <v>-108.557</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>84323.743579</v>
+        <v>84323.743579000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.423262</v>
+        <v>23.423262000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.750000</v>
+        <v>1224.75</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.376300</v>
+        <v>-91.376300000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>84334.568779</v>
+        <v>84334.568778999994</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.426269</v>
+        <v>23.426269000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.600000</v>
+        <v>-86.6</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>84344.800240</v>
+        <v>84344.800239999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.429111</v>
+        <v>23.429110999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.615700</v>
+        <v>-89.615700000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>84355.356130</v>
+        <v>84355.35613</v>
       </c>
       <c r="AP20" s="1">
         <v>23.432043</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.280000</v>
+        <v>-101.28</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>84366.086052</v>
+        <v>84366.086051999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.435024</v>
+        <v>23.435023999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.490000</v>
+        <v>1254.49</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.365000</v>
+        <v>-120.36499999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>84377.161221</v>
+        <v>84377.161221000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.438100</v>
+        <v>23.438099999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.667000</v>
+        <v>-137.667</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>84387.815323</v>
+        <v>84387.815323000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.441060</v>
+        <v>23.44106</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.620000</v>
+        <v>1302.6199999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.333000</v>
+        <v>-219.333</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>84398.812089</v>
+        <v>84398.812088999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.444114</v>
+        <v>23.444113999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.280000</v>
+        <v>1372.28</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.246000</v>
+        <v>-355.24599999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>84409.082252</v>
+        <v>84409.082251999993</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.446967</v>
+        <v>23.446967000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.890000</v>
+        <v>1486.89</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.002000</v>
+        <v>-576.00199999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>84419.673821</v>
+        <v>84419.673821000004</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.449909</v>
+        <v>23.449909000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.660000</v>
+        <v>1618.66</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.109000</v>
+        <v>-824.10900000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>84430.660206</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.452961</v>
+        <v>23.452960999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.250000</v>
+        <v>1771.25</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1093.680000</v>
+        <v>-1093.68</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>84443.458510</v>
+        <v>84443.458509999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.456516</v>
+        <v>23.456516000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2185.500000</v>
+        <v>2185.5</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1746.050000</v>
+        <v>-1746.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>84271.829808</v>
+        <v>84271.829807999995</v>
       </c>
       <c r="B21" s="1">
         <v>23.408842</v>
       </c>
       <c r="C21" s="1">
-        <v>1152.280000</v>
+        <v>1152.28</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.782000</v>
+        <v>-258.78199999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>84282.273570</v>
+        <v>84282.273570000005</v>
       </c>
       <c r="G21" s="1">
-        <v>23.411743</v>
+        <v>23.411743000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.570000</v>
+        <v>1173.57</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.771000</v>
+        <v>-217.77099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>84292.815044</v>
+        <v>84292.815044000003</v>
       </c>
       <c r="L21" s="1">
-        <v>23.414671</v>
+        <v>23.414670999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.630000</v>
+        <v>1201.6300000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.718000</v>
+        <v>-151.71799999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>84303.358007</v>
+        <v>84303.358007000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.417599</v>
+        <v>23.417598999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1209.440000</v>
+        <v>1209.44</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.606000</v>
+        <v>-129.60599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>84313.865939</v>
+        <v>84313.865938999996</v>
       </c>
       <c r="V21" s="1">
-        <v>23.420518</v>
+        <v>23.420518000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.860000</v>
+        <v>1216.8599999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.690000</v>
+        <v>-108.69</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>84324.440955</v>
+        <v>84324.440954999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.423456</v>
+        <v>23.423456000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.740000</v>
+        <v>1224.74</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.445100</v>
+        <v>-91.445099999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>84334.902573</v>
+        <v>84334.902572999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.426362</v>
+        <v>23.426362000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.500000</v>
+        <v>1229.5</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.614500</v>
+        <v>-86.614500000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>84345.147439</v>
+        <v>84345.147438999993</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.429208</v>
+        <v>23.429207999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.650000</v>
+        <v>1236.6500000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.587700</v>
+        <v>-89.587699999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>84355.716225</v>
+        <v>84355.716224999996</v>
       </c>
       <c r="AP21" s="1">
         <v>23.432143</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.260000</v>
+        <v>-101.26</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>84366.458547</v>
+        <v>84366.458547000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.435127</v>
+        <v>23.435127000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.331000</v>
+        <v>-120.331</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>84377.835285</v>
+        <v>84377.835284999994</v>
       </c>
       <c r="AZ21" s="1">
         <v>23.438288</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.707000</v>
+        <v>-137.70699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>84388.221510</v>
+        <v>84388.221510000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.441173</v>
+        <v>23.441172999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.660000</v>
+        <v>1302.6600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.344000</v>
+        <v>-219.34399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>84398.918232</v>
+        <v>84398.918231999996</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.444144</v>
+        <v>23.444144000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.290000</v>
+        <v>1372.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.253000</v>
+        <v>-355.25299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>84409.491483</v>
+        <v>84409.491483000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.447081</v>
+        <v>23.447081000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.991000</v>
+        <v>-575.99099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>84420.114268</v>
+        <v>84420.114268000005</v>
       </c>
       <c r="BT21" s="1">
         <v>23.450032</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.580000</v>
+        <v>1618.58</v>
       </c>
       <c r="BV21" s="1">
-        <v>-824.265000</v>
+        <v>-824.26499999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>84431.111566</v>
+        <v>84431.111566000007</v>
       </c>
       <c r="BY21" s="1">
         <v>23.453087</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1771.110000</v>
+        <v>1771.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1093.640000</v>
+        <v>-1093.6400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>84444.012541</v>
+        <v>84444.012541000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.456670</v>
+        <v>23.456669999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2185.260000</v>
+        <v>2185.2600000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1744.180000</v>
+        <v>-1744.18</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>84272.169694</v>
+        <v>84272.169693999997</v>
       </c>
       <c r="B22" s="1">
-        <v>23.408936</v>
+        <v>23.408936000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1152.060000</v>
+        <v>1152.06</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.973000</v>
+        <v>-258.97300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>84282.622754</v>
+        <v>84282.622753999996</v>
       </c>
       <c r="G22" s="1">
-        <v>23.411840</v>
+        <v>23.411840000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1173.610000</v>
+        <v>1173.6099999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.606000</v>
+        <v>-217.60599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>84293.161748</v>
+        <v>84293.161747999999</v>
       </c>
       <c r="L22" s="1">
-        <v>23.414767</v>
+        <v>23.414767000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1201.400000</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.380000</v>
+        <v>-151.38</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>84304.065301</v>
+        <v>84304.065300999995</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.417796</v>
+        <v>23.417795999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1209.450000</v>
+        <v>1209.45</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.509000</v>
+        <v>-129.50899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>84314.550763</v>
+        <v>84314.550763000007</v>
       </c>
       <c r="V22" s="1">
-        <v>23.420709</v>
+        <v>23.420708999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1217.020000</v>
+        <v>1217.02</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.560000</v>
+        <v>-108.56</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>84324.789147</v>
+        <v>84324.789147000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.423553</v>
+        <v>23.423552999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.750000</v>
+        <v>1224.75</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.295400</v>
+        <v>-91.295400000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>84335.253276</v>
+        <v>84335.253276000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.426459</v>
+        <v>23.426459000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.530000</v>
+        <v>1229.53</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.640600</v>
+        <v>-86.640600000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>84345.497615</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.429305</v>
+        <v>23.429304999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.605900</v>
+        <v>-89.605900000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>84356.394729</v>
+        <v>84356.394729000007</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.432332</v>
+        <v>23.432331999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.276000</v>
+        <v>-101.276</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>84367.134608</v>
+        <v>84367.134607999993</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.435315</v>
+        <v>23.435314999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.332000</v>
+        <v>-120.33199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>84378.242499</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.438401</v>
+        <v>23.438400999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.699000</v>
+        <v>-137.69900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>84388.608389</v>
+        <v>84388.608389000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.441280</v>
+        <v>23.441279999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.660000</v>
+        <v>1302.6600000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.310000</v>
+        <v>-219.31</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>84399.278338</v>
+        <v>84399.278338000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.444244</v>
+        <v>23.444244000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.260000</v>
+        <v>1372.26</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.361000</v>
+        <v>-355.36099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>84409.889738</v>
+        <v>84409.889737999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.447192</v>
+        <v>23.447192000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.870000</v>
+        <v>1486.87</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.947000</v>
+        <v>-575.947</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>84420.523996</v>
+        <v>84420.523996000004</v>
       </c>
       <c r="BT22" s="1">
         <v>23.450146</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.610000</v>
+        <v>1618.61</v>
       </c>
       <c r="BV22" s="1">
-        <v>-824.382000</v>
+        <v>-824.38199999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>84431.534653</v>
+        <v>84431.534652999995</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.453204</v>
+        <v>23.453203999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1093.750000</v>
+        <v>-1093.75</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>84444.538764</v>
+        <v>84444.538763999997</v>
       </c>
       <c r="CD22" s="1">
         <v>23.456816</v>
       </c>
       <c r="CE22" s="1">
-        <v>2185.840000</v>
+        <v>2185.84</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1746.300000</v>
+        <v>-1746.3</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>84272.512799</v>
+        <v>84272.512799000004</v>
       </c>
       <c r="B23" s="1">
-        <v>23.409031</v>
+        <v>23.409030999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1152.170000</v>
+        <v>1152.17</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.870000</v>
+        <v>-258.87</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>84283.314216</v>
+        <v>84283.314215999999</v>
       </c>
       <c r="G23" s="1">
         <v>23.412032</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.890000</v>
+        <v>1173.8900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.335000</v>
+        <v>-217.33500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>84293.848709</v>
+        <v>84293.848708999998</v>
       </c>
       <c r="L23" s="1">
-        <v>23.414958</v>
+        <v>23.414957999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1201.620000</v>
+        <v>1201.6199999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.754000</v>
+        <v>-151.75399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>84304.405063</v>
+        <v>84304.405062999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.417890</v>
+        <v>23.41789</v>
       </c>
       <c r="R23" s="1">
-        <v>1209.470000</v>
+        <v>1209.47</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.501000</v>
+        <v>-129.501</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>84314.907351</v>
+        <v>84314.907351000002</v>
       </c>
       <c r="V23" s="1">
-        <v>23.420808</v>
+        <v>23.420808000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>84325.140810</v>
+        <v>84325.140809999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.423650</v>
+        <v>23.423649999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.730000</v>
+        <v>1224.73</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.307700</v>
+        <v>-91.307699999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>84335.912924</v>
+        <v>84335.912924000004</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.426642</v>
+        <v>23.426642000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.530000</v>
+        <v>1229.53</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.602400</v>
+        <v>-86.602400000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>84346.156798</v>
+        <v>84346.156797999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.429488</v>
+        <v>23.429487999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.612300</v>
+        <v>-89.612300000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>84356.789567</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.432442</v>
+        <v>23.432442000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.258000</v>
+        <v>-101.258</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>84367.581985</v>
+        <v>84367.581984999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.435439</v>
+        <v>23.435438999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.500000</v>
+        <v>1254.5</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.346000</v>
+        <v>-120.346</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>84378.622468</v>
+        <v>84378.622468000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>23.438506</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.715000</v>
+        <v>-137.715</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>84388.990309</v>
+        <v>84388.990309000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.441386</v>
+        <v>23.441386000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.650000</v>
+        <v>1302.6500000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.321000</v>
+        <v>-219.321</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>84399.654295</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.444348</v>
+        <v>23.444348000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.170000</v>
+        <v>1372.17</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.344000</v>
+        <v>-355.34399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>84410.312826</v>
+        <v>84410.312825999994</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.447309</v>
+        <v>23.447309000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.944000</v>
+        <v>-575.94399999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>84420.960940</v>
+        <v>84420.960940000004</v>
       </c>
       <c r="BT23" s="1">
         <v>23.450267</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.580000</v>
+        <v>1618.58</v>
       </c>
       <c r="BV23" s="1">
-        <v>-824.457000</v>
+        <v>-824.45699999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>84431.956284</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.453321</v>
+        <v>23.453320999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.190000</v>
+        <v>1771.19</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1093.740000</v>
+        <v>-1093.74</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>84445.060555</v>
+        <v>84445.060555000004</v>
       </c>
       <c r="CD23" s="1">
         <v>23.456961</v>
       </c>
       <c r="CE23" s="1">
-        <v>2187.630000</v>
+        <v>2187.63</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1744.930000</v>
+        <v>-1744.93</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>84273.215136</v>
+        <v>84273.215135999999</v>
       </c>
       <c r="B24" s="1">
         <v>23.409226</v>
       </c>
       <c r="C24" s="1">
-        <v>1152.270000</v>
+        <v>1152.27</v>
       </c>
       <c r="D24" s="1">
-        <v>-259.003000</v>
+        <v>-259.00299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>84283.661378</v>
+        <v>84283.661378000004</v>
       </c>
       <c r="G24" s="1">
-        <v>23.412128</v>
+        <v>23.412127999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.880000</v>
+        <v>1173.8800000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.386000</v>
+        <v>-217.386</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>84294.202851</v>
+        <v>84294.202850999995</v>
       </c>
       <c r="L24" s="1">
         <v>23.415056</v>
       </c>
       <c r="M24" s="1">
-        <v>1201.420000</v>
+        <v>1201.42</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.576000</v>
+        <v>-151.57599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>84304.757222</v>
       </c>
       <c r="Q24" s="1">
-        <v>23.417988</v>
+        <v>23.417988000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1209.540000</v>
+        <v>1209.54</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.454000</v>
+        <v>-129.45400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>84315.568550</v>
+        <v>84315.568549999996</v>
       </c>
       <c r="V24" s="1">
-        <v>23.420991</v>
+        <v>23.420991000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.930000</v>
+        <v>1216.93</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.605000</v>
+        <v>-108.605</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>84325.802506</v>
+        <v>84325.802506000007</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.423834</v>
+        <v>23.423833999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.740000</v>
+        <v>1224.74</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.283300</v>
+        <v>-91.283299999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>84336.286446</v>
+        <v>84336.286445999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.426746</v>
+        <v>23.426746000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.644900</v>
+        <v>-86.644900000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>84346.540237</v>
+        <v>84346.540236999994</v>
       </c>
       <c r="AK24" s="1">
-        <v>23.429595</v>
+        <v>23.429594999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.670000</v>
+        <v>1236.67</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.610800</v>
+        <v>-89.610799999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>84357.179088</v>
+        <v>84357.179088000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.432550</v>
+        <v>23.432549999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.248000</v>
+        <v>-101.248</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>84367.944561</v>
+        <v>84367.944560999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.435540</v>
+        <v>23.43554</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.510000</v>
+        <v>1254.51</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.339000</v>
+        <v>-120.339</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>84378.998436</v>
+        <v>84378.998435999994</v>
       </c>
       <c r="AZ24" s="1">
-        <v>23.438611</v>
+        <v>23.438611000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.701000</v>
+        <v>-137.70099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>84389.419845</v>
+        <v>84389.419844999997</v>
       </c>
       <c r="BE24" s="1">
         <v>23.441506</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.650000</v>
+        <v>1302.6500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.335000</v>
+        <v>-219.33500000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>84400.094248</v>
+        <v>84400.094247999994</v>
       </c>
       <c r="BJ24" s="1">
         <v>23.444471</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.170000</v>
+        <v>1372.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.284000</v>
+        <v>-355.28399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>84410.705657</v>
+        <v>84410.705656999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.447418</v>
+        <v>23.447417999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.880000</v>
+        <v>1486.88</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.979000</v>
+        <v>-575.97900000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>84421.383532</v>
+        <v>84421.383532000007</v>
       </c>
       <c r="BT24" s="1">
         <v>23.450384</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.590000</v>
+        <v>1618.59</v>
       </c>
       <c r="BV24" s="1">
-        <v>-824.505000</v>
+        <v>-824.505</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>84432.404143</v>
+        <v>84432.404143000007</v>
       </c>
       <c r="BY24" s="1">
         <v>23.453446</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.120000</v>
+        <v>1771.12</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1093.760000</v>
+        <v>-1093.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>84445.576395</v>
+        <v>84445.576394999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.457105</v>
+        <v>23.457104999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2185.680000</v>
+        <v>2185.6799999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1743.600000</v>
+        <v>-1743.6</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>84273.570766</v>
+        <v>84273.570766000004</v>
       </c>
       <c r="B25" s="1">
-        <v>23.409325</v>
+        <v>23.409324999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1152.160000</v>
+        <v>1152.1600000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-259.037000</v>
+        <v>-259.03699999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>84284.007585</v>
+        <v>84284.007584999999</v>
       </c>
       <c r="G25" s="1">
-        <v>23.412224</v>
+        <v>23.412223999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1173.430000</v>
+        <v>1173.43</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.346000</v>
+        <v>-217.346</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>84294.549058</v>
+        <v>84294.549058000004</v>
       </c>
       <c r="L25" s="1">
         <v>23.415153</v>
       </c>
       <c r="M25" s="1">
-        <v>1201.590000</v>
+        <v>1201.5899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.612000</v>
+        <v>-151.61199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>84305.421860</v>
+        <v>84305.421860000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.418173</v>
+        <v>23.418172999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.578000</v>
+        <v>-129.578</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>84315.935589</v>
+        <v>84315.935589000001</v>
       </c>
       <c r="V25" s="1">
-        <v>23.421093</v>
+        <v>23.421092999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1217.010000</v>
+        <v>1217.01</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.645000</v>
+        <v>-108.645</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>84326.185385</v>
+        <v>84326.185385000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.423940</v>
+        <v>23.423940000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.760000</v>
+        <v>1224.76</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.323300</v>
+        <v>-91.323300000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>84336.629667</v>
+        <v>84336.629667000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.426842</v>
+        <v>23.426842000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.510000</v>
+        <v>1229.51</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.622600</v>
+        <v>-86.622600000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>84346.891373</v>
+        <v>84346.891373000006</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.429692</v>
+        <v>23.429691999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.617400</v>
+        <v>-89.617400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>84357.538527</v>
+        <v>84357.538526999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.432650</v>
+        <v>23.432649999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.241000</v>
+        <v>-101.241</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>84368.299704</v>
+        <v>84368.299704000005</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.435639</v>
+        <v>23.435638999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.490000</v>
+        <v>1254.49</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.344000</v>
+        <v>-120.34399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>84379.429955</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.438731</v>
+        <v>23.438731000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.820000</v>
+        <v>1262.82</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.692000</v>
+        <v>-137.69200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>84389.711028</v>
+        <v>84389.711028000005</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.441586</v>
+        <v>23.441586000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.600000</v>
+        <v>1302.5999999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.333000</v>
+        <v>-219.333</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>84400.413206</v>
+        <v>84400.413205999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.444559</v>
+        <v>23.444559000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.280000</v>
+        <v>1372.28</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.313000</v>
+        <v>-355.31299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>84411.124777</v>
+        <v>84411.124777000005</v>
       </c>
       <c r="BO25" s="1">
-        <v>23.447535</v>
+        <v>23.447534999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.890000</v>
+        <v>1486.89</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.986000</v>
+        <v>-575.98599999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>84421.796202</v>
+        <v>84421.796201999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.450499</v>
+        <v>23.450499000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.610000</v>
+        <v>1618.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-824.631000</v>
+        <v>-824.63099999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>84432.833675</v>
+        <v>84432.833675000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>23.453565</v>
+        <v>23.453565000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.160000</v>
+        <v>1771.16</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1093.730000</v>
+        <v>-1093.73</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>84446.095242</v>
+        <v>84446.095241999996</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.457249</v>
+        <v>23.457249000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2186.760000</v>
+        <v>2186.7600000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1743.660000</v>
+        <v>-1743.66</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>84273.907549</v>
+        <v>84273.907548999996</v>
       </c>
       <c r="B26" s="1">
         <v>23.409419</v>
       </c>
       <c r="C26" s="1">
-        <v>1152.100000</v>
+        <v>1152.0999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.971000</v>
+        <v>-258.971</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>84284.718351</v>
+        <v>84284.718351000003</v>
       </c>
       <c r="G26" s="1">
-        <v>23.412422</v>
+        <v>23.412421999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.430000</v>
+        <v>1173.43</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.376000</v>
+        <v>-217.376</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>84295.210721</v>
+        <v>84295.210720999996</v>
       </c>
       <c r="L26" s="1">
         <v>23.415336</v>
       </c>
       <c r="M26" s="1">
-        <v>1201.330000</v>
+        <v>1201.33</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.616000</v>
+        <v>-151.61600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>84305.803285</v>
+        <v>84305.803285000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.418279</v>
+        <v>23.418278999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1209.430000</v>
+        <v>1209.43</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.585000</v>
+        <v>-129.58500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>84316.279323</v>
+        <v>84316.279322999995</v>
       </c>
       <c r="V26" s="1">
-        <v>23.421189</v>
+        <v>23.421188999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.950000</v>
+        <v>1216.95</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>84326.534568</v>
+        <v>84326.534568000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.424037</v>
+        <v>23.424036999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.670000</v>
+        <v>1224.67</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.322900</v>
+        <v>-91.322900000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>84336.977340</v>
+        <v>84336.977339999998</v>
       </c>
       <c r="AF26" s="1">
         <v>23.426938</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.609600</v>
+        <v>-86.6096</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>84347.241549</v>
+        <v>84347.241548999998</v>
       </c>
       <c r="AK26" s="1">
         <v>23.429789</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.624300</v>
+        <v>-89.624300000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>84357.962171</v>
+        <v>84357.962171000006</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.432767</v>
+        <v>23.432766999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.270000</v>
+        <v>-101.27</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>84369.037744</v>
+        <v>84369.037744000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>23.435844</v>
+        <v>23.435843999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.372000</v>
+        <v>-120.372</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>84379.718097</v>
+        <v>84379.718097000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.438811</v>
+        <v>23.438811000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.830000</v>
+        <v>1262.83</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.692000</v>
+        <v>-137.69200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>84390.071588</v>
+        <v>84390.071588000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.441687</v>
+        <v>23.441687000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.301000</v>
+        <v>-219.30099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>84400.800582</v>
+        <v>84400.800581999996</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.444667</v>
+        <v>23.444666999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.250000</v>
+        <v>1372.25</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.346000</v>
+        <v>-355.346</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>84411.521575</v>
+        <v>84411.521575000006</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.447645</v>
+        <v>23.447645000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.860000</v>
+        <v>1486.86</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.941000</v>
+        <v>-575.94100000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>84422.226234</v>
+        <v>84422.226234000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.450618</v>
+        <v>23.450617999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.760000</v>
+        <v>1618.76</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.623000</v>
+        <v>-824.62300000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>84433.255313</v>
+        <v>84433.255313000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.453682</v>
+        <v>23.453682000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.050000</v>
+        <v>1771.05</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1093.770000</v>
+        <v>-1093.77</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>84446.644281</v>
+        <v>84446.644281000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.457401</v>
+        <v>23.457401000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2187.470000</v>
+        <v>2187.4699999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1744.440000</v>
+        <v>-1744.44</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>